--- a/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - rendicontate.xlsx
+++ b/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - rendicontate.xlsx
@@ -1073,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="98851832"/>
-        <c:axId val="125995976"/>
+        <c:axId val="280384576"/>
+        <c:axId val="280971272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98851832"/>
+        <c:axId val="280384576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125995976"/>
+        <c:crossAx val="280971272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125995976"/>
+        <c:axId val="280971272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98851832"/>
+        <c:crossAx val="280384576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4719,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J29" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
